--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il1a</t>
+  </si>
+  <si>
+    <t>Il1r2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il1a</t>
-  </si>
-  <si>
-    <t>Il1r2</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>94.03756699999998</v>
+        <v>7.276914333333333</v>
       </c>
       <c r="H2">
-        <v>282.112701</v>
+        <v>21.830743</v>
       </c>
       <c r="I2">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>263.9035463333333</v>
+        <v>0.1293233333333333</v>
       </c>
       <c r="N2">
-        <v>791.710639</v>
+        <v>0.38797</v>
       </c>
       <c r="O2">
-        <v>0.9572387917213622</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="P2">
-        <v>0.9572387917213622</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="Q2">
-        <v>24816.84741985843</v>
+        <v>0.9410748179677778</v>
       </c>
       <c r="R2">
-        <v>223351.6267787259</v>
+        <v>8.469673361710001</v>
       </c>
       <c r="S2">
-        <v>0.9081235337490798</v>
+        <v>0.02793463826022293</v>
       </c>
       <c r="T2">
-        <v>0.9081235337490798</v>
+        <v>0.02793463826022293</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>94.03756699999998</v>
+        <v>7.276914333333333</v>
       </c>
       <c r="H3">
-        <v>282.112701</v>
+        <v>21.830743</v>
       </c>
       <c r="I3">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.916052</v>
       </c>
       <c r="O3">
-        <v>0.003525730179150291</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="P3">
-        <v>0.003525730179150291</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="Q3">
-        <v>91.40614510849466</v>
+        <v>7.073286865181778</v>
       </c>
       <c r="R3">
-        <v>822.6553059764519</v>
+        <v>63.659581786636</v>
       </c>
       <c r="S3">
-        <v>0.003344827410909748</v>
+        <v>0.2099617438667928</v>
       </c>
       <c r="T3">
-        <v>0.003344827410909748</v>
+        <v>0.2099617438667928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>94.03756699999998</v>
+        <v>7.276914333333333</v>
       </c>
       <c r="H4">
-        <v>282.112701</v>
+        <v>21.830743</v>
       </c>
       <c r="I4">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8260933333333335</v>
+        <v>1.000161333333333</v>
       </c>
       <c r="N4">
-        <v>2.47828</v>
+        <v>3.000484</v>
       </c>
       <c r="O4">
-        <v>0.002996430306587326</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="P4">
-        <v>0.002996430306587326</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="Q4">
-        <v>77.68380718158666</v>
+        <v>7.27808834217911</v>
       </c>
       <c r="R4">
-        <v>699.15426463428</v>
+        <v>65.50279507961199</v>
       </c>
       <c r="S4">
-        <v>0.00284268554741459</v>
+        <v>0.2160410215882329</v>
       </c>
       <c r="T4">
-        <v>0.00284268554741459</v>
+        <v>0.2160410215882329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>94.03756699999998</v>
+        <v>7.276914333333333</v>
       </c>
       <c r="H5">
-        <v>282.112701</v>
+        <v>21.830743</v>
       </c>
       <c r="I5">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.990833333333333</v>
+        <v>2.527995333333333</v>
       </c>
       <c r="N5">
-        <v>29.9725</v>
+        <v>7.583985999999999</v>
       </c>
       <c r="O5">
-        <v>0.03623904779290016</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="P5">
-        <v>0.03623904779290017</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="Q5">
-        <v>939.5136589691664</v>
+        <v>18.39600547573311</v>
       </c>
       <c r="R5">
-        <v>8455.622930722498</v>
+        <v>165.564049281598</v>
       </c>
       <c r="S5">
-        <v>0.03437964740460472</v>
+        <v>0.5460625962847514</v>
       </c>
       <c r="T5">
-        <v>0.03437964740460472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5.085959333333333</v>
-      </c>
-      <c r="H6">
-        <v>15.257878</v>
-      </c>
-      <c r="I6">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="J6">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>263.9035463333333</v>
-      </c>
-      <c r="N6">
-        <v>791.710639</v>
-      </c>
-      <c r="O6">
-        <v>0.9572387917213622</v>
-      </c>
-      <c r="P6">
-        <v>0.9572387917213622</v>
-      </c>
-      <c r="Q6">
-        <v>1342.202704573783</v>
-      </c>
-      <c r="R6">
-        <v>12079.82434116404</v>
-      </c>
-      <c r="S6">
-        <v>0.04911525797228231</v>
-      </c>
-      <c r="T6">
-        <v>0.04911525797228231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.085959333333333</v>
-      </c>
-      <c r="H7">
-        <v>15.257878</v>
-      </c>
-      <c r="I7">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="J7">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.9720173333333334</v>
-      </c>
-      <c r="N7">
-        <v>2.916052</v>
-      </c>
-      <c r="O7">
-        <v>0.003525730179150291</v>
-      </c>
-      <c r="P7">
-        <v>0.003525730179150291</v>
-      </c>
-      <c r="Q7">
-        <v>4.943640628628445</v>
-      </c>
-      <c r="R7">
-        <v>44.492765657656</v>
-      </c>
-      <c r="S7">
-        <v>0.0001809027682405437</v>
-      </c>
-      <c r="T7">
-        <v>0.0001809027682405437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.085959333333333</v>
-      </c>
-      <c r="H8">
-        <v>15.257878</v>
-      </c>
-      <c r="I8">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="J8">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.8260933333333335</v>
-      </c>
-      <c r="N8">
-        <v>2.47828</v>
-      </c>
-      <c r="O8">
-        <v>0.002996430306587326</v>
-      </c>
-      <c r="P8">
-        <v>0.002996430306587326</v>
-      </c>
-      <c r="Q8">
-        <v>4.201477098871112</v>
-      </c>
-      <c r="R8">
-        <v>37.81329388984</v>
-      </c>
-      <c r="S8">
-        <v>0.0001537447591727359</v>
-      </c>
-      <c r="T8">
-        <v>0.0001537447591727358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.085959333333333</v>
-      </c>
-      <c r="H9">
-        <v>15.257878</v>
-      </c>
-      <c r="I9">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="J9">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.990833333333333</v>
-      </c>
-      <c r="N9">
-        <v>29.9725</v>
-      </c>
-      <c r="O9">
-        <v>0.03623904779290016</v>
-      </c>
-      <c r="P9">
-        <v>0.03623904779290017</v>
-      </c>
-      <c r="Q9">
-        <v>50.81297203944444</v>
-      </c>
-      <c r="R9">
-        <v>457.316748355</v>
-      </c>
-      <c r="S9">
-        <v>0.001859400388295441</v>
-      </c>
-      <c r="T9">
-        <v>0.001859400388295441</v>
+        <v>0.5460625962847514</v>
       </c>
     </row>
   </sheetData>
